--- a/原始施工记录/13号楼/竣工资料/3.竣工报告.xlsx
+++ b/原始施工记录/13号楼/竣工资料/3.竣工报告.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23233" windowHeight="9583"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="第1页" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>表C.1.1-2</t>
   </si>
@@ -25,7 +25,7 @@
     <t>施工许可证号:</t>
   </si>
   <si>
-    <t>140202202007210102</t>
+    <t>140202202009180102</t>
   </si>
   <si>
     <t>编号:</t>
@@ -40,7 +40,7 @@
     <t>工程名称</t>
   </si>
   <si>
-    <t>大同七里村碧桂园二期桩基础工程1#楼</t>
+    <t>大同七里村碧桂园一期桩基础工程13#楼</t>
   </si>
   <si>
     <t>结构类型</t>
@@ -67,7 +67,7 @@
     <t>施工单位</t>
   </si>
   <si>
-    <t>江苏南通二建集团有限公司</t>
+    <t>山西六建集团有限公司</t>
   </si>
   <si>
     <t>工程造价</t>
@@ -90,7 +90,7 @@
     <t>计划开工日期</t>
   </si>
   <si>
-    <t>2020年6月28日</t>
+    <t>2020年10月14日</t>
   </si>
   <si>
     <t xml:space="preserve"> 现场清理情况</t>
@@ -102,9 +102,6 @@
     <t>实际开工日期</t>
   </si>
   <si>
-    <t>2020年7月21日</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 施工资料整理情况</t>
   </si>
   <si>
@@ -114,7 +111,7 @@
     <t>计划竣工日期</t>
   </si>
   <si>
-    <t>2020年7月12日</t>
+    <t>2020年10月25日</t>
   </si>
   <si>
     <t xml:space="preserve"> 施工质量验收情况</t>
@@ -124,9 +121,6 @@
   </si>
   <si>
     <t>实际竣工日期</t>
-  </si>
-  <si>
-    <t>2020年8月7日</t>
   </si>
   <si>
     <t xml:space="preserve"> 未完工程盘点情况</t>
@@ -181,9 +175,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -238,9 +232,137 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -251,119 +373,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -378,21 +387,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -409,187 +403,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,6 +851,21 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,21 +885,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -908,9 +902,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,161 +938,159 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1138,6 +1132,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1619,16 +1616,16 @@
   <dimension ref="A1:AY17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA10" sqref="BA10"/>
+      <selection activeCell="F7" sqref="F7:U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14678899082569" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="2.85321100917431" customWidth="1"/>
-    <col min="5" max="5" width="3.28440366972477" customWidth="1"/>
-    <col min="6" max="18" width="2.85321100917431" customWidth="1"/>
-    <col min="19" max="19" width="3.85321100917431" customWidth="1"/>
-    <col min="20" max="51" width="2.85321100917431" customWidth="1"/>
+    <col min="1" max="4" width="2.85714285714286" customWidth="1"/>
+    <col min="5" max="5" width="3.28571428571429" customWidth="1"/>
+    <col min="6" max="18" width="2.85714285714286" customWidth="1"/>
+    <col min="19" max="19" width="3.85714285714286" customWidth="1"/>
+    <col min="20" max="51" width="2.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.55" customHeight="1" spans="1:51">
@@ -1786,15 +1783,15 @@
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
       <c r="AN3" s="6"/>
-      <c r="AO3" s="33" t="s">
+      <c r="AO3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="AP3" s="5"/>
       <c r="AQ3" s="5"/>
-      <c r="AR3" s="34"/>
+      <c r="AR3" s="35"/>
       <c r="AS3" s="6"/>
       <c r="AT3" s="6"/>
-      <c r="AU3" s="35" t="s">
+      <c r="AU3" s="36" t="s">
         <v>5</v>
       </c>
       <c r="AV3" s="6"/>
@@ -1824,48 +1821,48 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="24"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="25"/>
       <c r="R4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
       <c r="AH4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
-      <c r="AL4" s="31" t="s">
+      <c r="AL4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="24"/>
-      <c r="AU4" s="24"/>
-      <c r="AV4" s="24"/>
-      <c r="AW4" s="24"/>
-      <c r="AX4" s="24"/>
-      <c r="AY4" s="36"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="25"/>
+      <c r="AS4" s="25"/>
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="25"/>
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="25"/>
+      <c r="AY4" s="37"/>
     </row>
     <row r="5" ht="30.75" customHeight="1" spans="1:51">
       <c r="A5" s="11" t="s">
@@ -1930,7 +1927,7 @@
       <c r="AV5" s="14"/>
       <c r="AW5" s="14"/>
       <c r="AX5" s="14"/>
-      <c r="AY5" s="37"/>
+      <c r="AY5" s="38"/>
     </row>
     <row r="6" ht="30.75" customHeight="1" spans="1:51">
       <c r="A6" s="11" t="s">
@@ -1960,7 +1957,7 @@
         <v>19</v>
       </c>
       <c r="W6" s="12"/>
-      <c r="X6" s="25" t="s">
+      <c r="X6" s="26" t="s">
         <v>20</v>
       </c>
       <c r="Y6" s="12"/>
@@ -1991,7 +1988,7 @@
       <c r="AV6" s="14"/>
       <c r="AW6" s="14"/>
       <c r="AX6" s="14"/>
-      <c r="AY6" s="37"/>
+      <c r="AY6" s="38"/>
     </row>
     <row r="7" ht="30.75" customHeight="1" spans="1:51">
       <c r="A7" s="11" t="s">
@@ -2021,7 +2018,7 @@
       <c r="U7" s="14"/>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
-      <c r="X7" s="25" t="s">
+      <c r="X7" s="26" t="s">
         <v>24</v>
       </c>
       <c r="Y7" s="12"/>
@@ -2052,7 +2049,7 @@
       <c r="AV7" s="14"/>
       <c r="AW7" s="14"/>
       <c r="AX7" s="14"/>
-      <c r="AY7" s="37"/>
+      <c r="AY7" s="38"/>
     </row>
     <row r="8" ht="30.75" customHeight="1" spans="1:51">
       <c r="A8" s="11" t="s">
@@ -2063,7 +2060,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -2082,8 +2079,8 @@
       <c r="U8" s="14"/>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
-      <c r="X8" s="25" t="s">
-        <v>28</v>
+      <c r="X8" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
@@ -2099,7 +2096,7 @@
       <c r="AJ8" s="14"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM8" s="14"/>
       <c r="AN8" s="14"/>
@@ -2113,38 +2110,38 @@
       <c r="AV8" s="14"/>
       <c r="AW8" s="14"/>
       <c r="AX8" s="14"/>
-      <c r="AY8" s="37"/>
+      <c r="AY8" s="38"/>
     </row>
     <row r="9" ht="30.75" customHeight="1" spans="1:51">
       <c r="A9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
+      <c r="F9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
-      <c r="X9" s="25" t="s">
-        <v>32</v>
+      <c r="X9" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
@@ -2160,7 +2157,7 @@
       <c r="AJ9" s="14"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AM9" s="14"/>
       <c r="AN9" s="14"/>
@@ -2174,38 +2171,38 @@
       <c r="AV9" s="14"/>
       <c r="AW9" s="14"/>
       <c r="AX9" s="14"/>
-      <c r="AY9" s="37"/>
+      <c r="AY9" s="38"/>
     </row>
     <row r="10" ht="30.75" customHeight="1" spans="1:51">
       <c r="A10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
+      <c r="F10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
-      <c r="X10" s="25" t="s">
-        <v>36</v>
+      <c r="X10" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
@@ -2220,24 +2217,24 @@
       <c r="AI10" s="14"/>
       <c r="AJ10" s="14"/>
       <c r="AK10" s="14"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="32"/>
-      <c r="AN10" s="32"/>
-      <c r="AO10" s="32"/>
-      <c r="AP10" s="32"/>
-      <c r="AQ10" s="32"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="32"/>
-      <c r="AT10" s="32"/>
-      <c r="AU10" s="32"/>
-      <c r="AV10" s="32"/>
-      <c r="AW10" s="32"/>
-      <c r="AX10" s="32"/>
-      <c r="AY10" s="38"/>
+      <c r="AL10" s="33"/>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="33"/>
+      <c r="AO10" s="33"/>
+      <c r="AP10" s="33"/>
+      <c r="AQ10" s="33"/>
+      <c r="AR10" s="33"/>
+      <c r="AS10" s="33"/>
+      <c r="AT10" s="33"/>
+      <c r="AU10" s="33"/>
+      <c r="AV10" s="33"/>
+      <c r="AW10" s="33"/>
+      <c r="AX10" s="33"/>
+      <c r="AY10" s="39"/>
     </row>
     <row r="11" ht="30.75" customHeight="1" spans="1:51">
       <c r="A11" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -2261,8 +2258,8 @@
       <c r="U11" s="14"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
-      <c r="X11" s="26" t="s">
-        <v>38</v>
+      <c r="X11" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
@@ -2290,11 +2287,11 @@
       <c r="AV11" s="14"/>
       <c r="AW11" s="14"/>
       <c r="AX11" s="14"/>
-      <c r="AY11" s="37"/>
+      <c r="AY11" s="38"/>
     </row>
     <row r="12" ht="30.75" customHeight="1" spans="1:51">
       <c r="A12" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2318,8 +2315,8 @@
       <c r="U12" s="14"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
-      <c r="X12" s="26" t="s">
-        <v>40</v>
+      <c r="X12" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
@@ -2347,18 +2344,18 @@
       <c r="AV12" s="14"/>
       <c r="AW12" s="14"/>
       <c r="AX12" s="14"/>
-      <c r="AY12" s="37"/>
+      <c r="AY12" s="38"/>
     </row>
     <row r="13" ht="30.75" customHeight="1" spans="1:51">
       <c r="A13" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -2375,7 +2372,7 @@
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
       <c r="U13" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
@@ -2393,7 +2390,7 @@
       <c r="AI13" s="12"/>
       <c r="AJ13" s="12"/>
       <c r="AK13" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL13" s="12"/>
       <c r="AM13" s="12"/>
@@ -2408,7 +2405,7 @@
       <c r="AV13" s="12"/>
       <c r="AW13" s="12"/>
       <c r="AX13" s="12"/>
-      <c r="AY13" s="39"/>
+      <c r="AY13" s="40"/>
     </row>
     <row r="14" ht="30.75" customHeight="1" spans="1:51">
       <c r="A14" s="11"/>
@@ -2416,52 +2413,52 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="15"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="15"/>
-      <c r="AR14" s="15"/>
-      <c r="AS14" s="15"/>
-      <c r="AT14" s="15"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="15"/>
-      <c r="AW14" s="15"/>
-      <c r="AX14" s="15"/>
-      <c r="AY14" s="40"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="16"/>
+      <c r="AY14" s="41"/>
     </row>
     <row r="15" ht="35.4" customHeight="1" spans="1:51">
       <c r="A15" s="11"/>
@@ -2469,52 +2466,52 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16"/>
-      <c r="AM15" s="16"/>
-      <c r="AN15" s="16"/>
-      <c r="AO15" s="16"/>
-      <c r="AP15" s="16"/>
-      <c r="AQ15" s="16"/>
-      <c r="AR15" s="16"/>
-      <c r="AS15" s="16"/>
-      <c r="AT15" s="16"/>
-      <c r="AU15" s="16"/>
-      <c r="AV15" s="16"/>
-      <c r="AW15" s="16"/>
-      <c r="AX15" s="16"/>
-      <c r="AY15" s="41"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="17"/>
+      <c r="AO15" s="17"/>
+      <c r="AP15" s="17"/>
+      <c r="AQ15" s="17"/>
+      <c r="AR15" s="17"/>
+      <c r="AS15" s="17"/>
+      <c r="AT15" s="17"/>
+      <c r="AU15" s="17"/>
+      <c r="AV15" s="17"/>
+      <c r="AW15" s="17"/>
+      <c r="AX15" s="17"/>
+      <c r="AY15" s="42"/>
     </row>
     <row r="16" ht="34.6" customHeight="1" spans="1:51">
       <c r="A16" s="11"/>
@@ -2522,123 +2519,123 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="27" t="s">
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL16" s="18"/>
-      <c r="AM16" s="18"/>
-      <c r="AN16" s="18"/>
-      <c r="AO16" s="23"/>
-      <c r="AP16" s="23"/>
-      <c r="AQ16" s="23"/>
-      <c r="AR16" s="23"/>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="23"/>
-      <c r="AU16" s="23"/>
-      <c r="AV16" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW16" s="28"/>
-      <c r="AX16" s="28"/>
-      <c r="AY16" s="42"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="24"/>
+      <c r="AQ16" s="24"/>
+      <c r="AR16" s="24"/>
+      <c r="AS16" s="24"/>
+      <c r="AT16" s="24"/>
+      <c r="AU16" s="24"/>
+      <c r="AV16" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW16" s="29"/>
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="43"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:51">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="21"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="21"/>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="21"/>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="43"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="22"/>
+      <c r="AP17" s="22"/>
+      <c r="AQ17" s="22"/>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="22"/>
+      <c r="AT17" s="22"/>
+      <c r="AU17" s="22"/>
+      <c r="AV17" s="22"/>
+      <c r="AW17" s="22"/>
+      <c r="AX17" s="22"/>
+      <c r="AY17" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="70">
